--- a/doc/user-guide/examples/operation/operation-type.xlsx
+++ b/doc/user-guide/examples/operation/operation-type.xlsx
@@ -1,139 +1,226 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\frepple\community\doc\user-guide\cookbook\operation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\frepple\enterprise\doc\user-guide\examples\operation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E516765D-AF05-4552-ADAE-D174FC4C9D33}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4866D3A-B999-4B78-9DAB-5021D501E785}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="buffer" sheetId="1" r:id="rId1"/>
-    <sheet name="demand" sheetId="5" r:id="rId2"/>
-    <sheet name="customer" sheetId="20" r:id="rId3"/>
-    <sheet name="operationmaterial" sheetId="6" r:id="rId4"/>
-    <sheet name="itemdistribution" sheetId="22" r:id="rId5"/>
-    <sheet name="item" sheetId="7" r:id="rId6"/>
-    <sheet name="location" sheetId="9" r:id="rId7"/>
-    <sheet name="operation" sheetId="11" r:id="rId8"/>
-    <sheet name="parameter" sheetId="19" r:id="rId9"/>
+    <sheet name="sales order" sheetId="1" r:id="rId1"/>
+    <sheet name="item" sheetId="2" r:id="rId2"/>
+    <sheet name="location" sheetId="3" r:id="rId3"/>
+    <sheet name="customer" sheetId="4" r:id="rId4"/>
+    <sheet name="item distribution" sheetId="5" r:id="rId5"/>
+    <sheet name="operation" sheetId="6" r:id="rId6"/>
+    <sheet name="operation material" sheetId="7" r:id="rId7"/>
+    <sheet name="parameter" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">customer!$A:$A</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">item!$A:$B</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'item distribution'!$A:$D</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">location!$A:$C</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">operation!$A:$H</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'operation material'!$A:$E</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">parameter!$A:$C</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'sales order'!$A:$H</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>priority</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>operation</t>
-  </si>
-  <si>
-    <t>release fence</t>
-  </si>
-  <si>
-    <t>post-op time</t>
-  </si>
-  <si>
-    <t>size minimum</t>
-  </si>
-  <si>
-    <t>size multiple</t>
-  </si>
-  <si>
-    <t>size maximum</t>
-  </si>
-  <si>
-    <t>duration</t>
-  </si>
-  <si>
-    <t>duration per unit</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="58">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Due</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>order 1</t>
+  </si>
+  <si>
+    <t>Client X</t>
+  </si>
+  <si>
+    <t>product A</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>order 2</t>
+  </si>
+  <si>
+    <t>product B</t>
+  </si>
+  <si>
+    <t>order 3</t>
+  </si>
+  <si>
+    <t>product C</t>
+  </si>
+  <si>
+    <t>order 4</t>
+  </si>
+  <si>
+    <t>product D</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>All items</t>
+  </si>
+  <si>
+    <t>Automatically created root object</t>
+  </si>
+  <si>
+    <t>All locations</t>
+  </si>
+  <si>
+    <t>factory</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>Lead Time</t>
+  </si>
+  <si>
+    <t>24:00:00</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Duration Per Unit</t>
+  </si>
+  <si>
+    <t>make product A (time_per)</t>
+  </si>
+  <si>
+    <t>time_per</t>
+  </si>
+  <si>
+    <t>01:00:00</t>
+  </si>
+  <si>
+    <t>00:10:00</t>
+  </si>
+  <si>
+    <t>make product B (fixed_time)</t>
+  </si>
+  <si>
+    <t>fixed_time</t>
+  </si>
+  <si>
+    <t>06:00:00</t>
+  </si>
+  <si>
+    <t>make product C (alternate)</t>
+  </si>
+  <si>
+    <t>alternate</t>
+  </si>
+  <si>
+    <t>make product D (split)</t>
+  </si>
+  <si>
+    <t>split</t>
+  </si>
+  <si>
+    <t>make product D (option 1)</t>
+  </si>
+  <si>
+    <t>make product D (option 2)</t>
+  </si>
+  <si>
+    <t>make product D (option 3)</t>
+  </si>
+  <si>
+    <t>make product C (option 1)</t>
+  </si>
+  <si>
+    <t>00:30:00</t>
+  </si>
+  <si>
+    <t>make product C (option 2)</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>Fixed Quantity</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
   <si>
     <t>currentdate</t>
   </si>
   <si>
+    <t>2020-01-01 00:00:00</t>
+  </si>
+  <si>
     <t>Current date of the plan, formatted as YYYY-MM-DD HH:MM:SS</t>
   </si>
   <si>
     <t>plan.loglevel</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Controls the verbosity of the planning log file. Accepted values are 0(silent - default), 1 and 2 (verbose)</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>factory</t>
-  </si>
-  <si>
-    <t>make product</t>
-  </si>
-  <si>
-    <t>order 1</t>
-  </si>
-  <si>
-    <t>time_per</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>Client X</t>
-  </si>
-  <si>
-    <t>customer</t>
-  </si>
-  <si>
-    <t>lead time</t>
-  </si>
-  <si>
-    <t>origin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,13 +228,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70C4F4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0EBFB"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -159,17 +260,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="headerstyle" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="readlonlyheaderstyle" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -227,7 +331,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -259,27 +363,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,24 +397,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -505,176 +573,285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2">
+        <v>43922</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2">
+        <v>43922</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2">
+        <v>43922</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2">
+        <v>43922</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <autoFilter ref="A1:H1048576" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="C1" sqref="C1:Y1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="12.21875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1">
-        <v>41730</v>
-      </c>
-      <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <autoFilter ref="A1:B1048576" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D1" sqref="D1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <autoFilter ref="A1:C1048576" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B1" sqref="B1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <autoFilter ref="A1:A1048576" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -683,234 +860,455 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E1" sqref="E1:Q1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2">
-        <v>86400</v>
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <autoFilter ref="A1:D1048576" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I1" sqref="I1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <autoFilter ref="A1:H1048576" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F1" sqref="F1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <autoFilter ref="A1:E1048576" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2">
-        <v>3600</v>
-      </c>
-      <c r="F2">
-        <v>600</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.44140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="2">
-        <v>41640</v>
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <autoFilter ref="A1:C1048576" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>